--- a/data/Analysis results.xlsx
+++ b/data/Analysis results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jperrin/Workspaces/Book/net.jgp.books.sparkWithJava.ch04/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69C7F0A9-4ADB-5B40-8995-5FE1CF5D7335}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48A6459F-37BE-DC45-A600-90A20B736E2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{F3FD4CC9-8027-2249-A179-E8E1DC3BF11D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{F3FD4CC9-8027-2249-A179-E8E1DC3BF11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <t>Creating a session ................. 1742</t>
   </si>
@@ -359,68 +359,77 @@
     <t>No transformation</t>
   </si>
   <si>
-    <t>5. Transformations  ................... 0</t>
-  </si>
-  <si>
     <t>Only column creation</t>
   </si>
   <si>
-    <t>1. Creating a session ................. 1918</t>
-  </si>
-  <si>
-    <t>2. Loading initial dataset ............ 3778</t>
-  </si>
-  <si>
-    <t>3. Building full dataset .............. 173</t>
-  </si>
-  <si>
-    <t>4. Clean-up ........................... 21</t>
-  </si>
-  <si>
-    <t>5. Transformations  ................... 275</t>
-  </si>
-  <si>
-    <t>6. Final action ....................... 52084</t>
-  </si>
-  <si>
-    <t>1. Creating a session ................. 1729</t>
-  </si>
-  <si>
-    <t>2. Loading initial dataset ............ 3359</t>
-  </si>
-  <si>
-    <t>3. Building full dataset .............. 63</t>
-  </si>
-  <si>
-    <t>4. Clean-up ........................... 13</t>
-  </si>
-  <si>
-    <t>5. Transformations  ................... 196</t>
-  </si>
-  <si>
-    <t>6. Final action ....................... 72220</t>
-  </si>
-  <si>
-    <t>1. Creating a session ................. 1596</t>
-  </si>
-  <si>
-    <t>2. Loading initial dataset ............ 3352</t>
-  </si>
-  <si>
-    <t>3. Building full dataset .............. 56</t>
-  </si>
-  <si>
-    <t>4. Clean-up ........................... 11</t>
-  </si>
-  <si>
-    <t>6. Final action ....................... 51149</t>
+    <t>5. Transformations  ................ 0</t>
+  </si>
+  <si>
+    <t>mvn exec:exec</t>
+  </si>
+  <si>
+    <t>mvn exec:exec -DexecMode=COL</t>
+  </si>
+  <si>
+    <t>5. Transformations  ................ 182</t>
+  </si>
+  <si>
+    <t>mvn exec:exec -DexecMode=FULL</t>
+  </si>
+  <si>
+    <t>1. Creating a session .............. 1791</t>
+  </si>
+  <si>
+    <t>2. Loading initial dataset ......... 3287</t>
+  </si>
+  <si>
+    <t>3. Building full dataset ........... 242</t>
+  </si>
+  <si>
+    <t>4. Clean-up ........................ 8</t>
+  </si>
+  <si>
+    <t>6. Final action .................... 20770</t>
+  </si>
+  <si>
+    <t># of records ....................... 2487641</t>
+  </si>
+  <si>
+    <t>1. Creating a session .............. 1553</t>
+  </si>
+  <si>
+    <t>2. Loading initial dataset ......... 3197</t>
+  </si>
+  <si>
+    <t>3. Building full dataset ........... 208</t>
+  </si>
+  <si>
+    <t>6. Final action .................... 34061</t>
+  </si>
+  <si>
+    <t>1. Creating a session .............. 1903</t>
+  </si>
+  <si>
+    <t>2. Loading initial dataset ......... 3184</t>
+  </si>
+  <si>
+    <t>3. Building full dataset ........... 213</t>
+  </si>
+  <si>
+    <t>5. Transformations  ................ 205</t>
+  </si>
+  <si>
+    <t>6. Final action .................... 24909</t>
+  </si>
+  <si>
+    <t>Total processing time (excluding loading)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +466,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -490,7 +505,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,6 +532,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -832,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA2CDE-3D0A-F94A-9A37-5A88A2E00234}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,207 +860,247 @@
     <col min="1" max="1" width="57.83203125" customWidth="1"/>
     <col min="3" max="3" width="57.83203125" customWidth="1"/>
     <col min="5" max="5" width="57.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <f>INT(RIGHT(A4,LEN(A4)-FIND("@",SUBSTITUTE(A4,".","@",LEN(A4)-LEN(SUBSTITUTE(A4,".",""))),1)-1))</f>
+        <v>1791</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <f>INT(RIGHT(C4,LEN(C4)-FIND("@",SUBSTITUTE(C4,".","@",LEN(C4)-LEN(SUBSTITUTE(C4,".",""))),1)-1))</f>
+        <v>1553</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <f>INT(RIGHT(E4,LEN(E4)-FIND("@",SUBSTITUTE(E4,".","@",LEN(E4)-LEN(SUBSTITUTE(E4,".",""))),1)-1))</f>
+        <v>1903</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(F4,D4,B4)</f>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="0">INT(RIGHT(A5,LEN(A5)-FIND("@",SUBSTITUTE(A5,".","@",LEN(A5)-LEN(SUBSTITUTE(A5,".",""))),1)-1))</f>
+        <v>3287</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="1">INT(RIGHT(C5,LEN(C5)-FIND("@",SUBSTITUTE(C5,".","@",LEN(C5)-LEN(SUBSTITUTE(C5,".",""))),1)-1))</f>
+        <v>3197</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F10" si="2">INT(RIGHT(E5,LEN(E5)-FIND("@",SUBSTITUTE(E5,".","@",LEN(E5)-LEN(SUBSTITUTE(E5,".",""))),1)-1))</f>
+        <v>3184</v>
+      </c>
+      <c r="H5" s="13">
+        <f>AVERAGE(F5,D5,B5)</f>
+        <v>3222.6666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B3">
-        <f>INT(RIGHT(A3,LEN(A3)-FIND("@",SUBSTITUTE(A3,".","@",LEN(A3)-LEN(SUBSTITUTE(A3,".",""))),1)-1))</f>
-        <v>1596</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3">
-        <f>INT(RIGHT(C3,LEN(C3)-FIND("@",SUBSTITUTE(C3,".","@",LEN(C3)-LEN(SUBSTITUTE(C3,".",""))),1)-1))</f>
-        <v>1729</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3">
-        <f>INT(RIGHT(E3,LEN(E3)-FIND("@",SUBSTITUTE(E3,".","@",LEN(E3)-LEN(SUBSTITUTE(E3,".",""))),1)-1))</f>
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4" si="0">INT(RIGHT(A4,LEN(A4)-FIND("@",SUBSTITUTE(A4,".","@",LEN(A4)-LEN(SUBSTITUTE(A4,".",""))),1)-1))</f>
-        <v>3352</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4" si="1">INT(RIGHT(C4,LEN(C4)-FIND("@",SUBSTITUTE(C4,".","@",LEN(C4)-LEN(SUBSTITUTE(C4,".",""))),1)-1))</f>
-        <v>3359</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F8" si="2">INT(RIGHT(E4,LEN(E4)-FIND("@",SUBSTITUTE(E4,".","@",LEN(E4)-LEN(SUBSTITUTE(E4,".",""))),1)-1))</f>
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5" si="3">INT(RIGHT(A5,LEN(A5)-FIND("@",SUBSTITUTE(A5,".","@",LEN(A5)-LEN(SUBSTITUTE(A5,".",""))),1)-1))</f>
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5" si="4">INT(RIGHT(C5,LEN(C5)-FIND("@",SUBSTITUTE(C5,".","@",LEN(C5)-LEN(SUBSTITUTE(C5,".",""))),1)-1))</f>
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6" si="5">INT(RIGHT(A6,LEN(A6)-FIND("@",SUBSTITUTE(A6,".","@",LEN(A6)-LEN(SUBSTITUTE(A6,".",""))),1)-1))</f>
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D6">
-        <f t="shared" ref="D6" si="6">INT(RIGHT(C6,LEN(C6)-FIND("@",SUBSTITUTE(C6,".","@",LEN(C6)-LEN(SUBSTITUTE(C6,".",""))),1)-1))</f>
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>213</v>
+      </c>
+      <c r="H6" s="13">
+        <f>AVERAGE(F6,D6,B6)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7" si="7">INT(RIGHT(A7,LEN(A7)-FIND("@",SUBSTITUTE(A7,".","@",LEN(A7)-LEN(SUBSTITUTE(A7,".",""))),1)-1))</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="8">INT(RIGHT(C7,LEN(C7)-FIND("@",SUBSTITUTE(C7,".","@",LEN(C7)-LEN(SUBSTITUTE(C7,".",""))),1)-1))</f>
-        <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8" si="9">INT(RIGHT(A8,LEN(A8)-FIND("@",SUBSTITUTE(A8,".","@",LEN(A8)-LEN(SUBSTITUTE(A8,".",""))),1)-1))</f>
-        <v>51149</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="10">INT(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",LEN(C8)-LEN(SUBSTITUTE(C8,".",""))),1)-1))</f>
-        <v>72220</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13">
+        <f>AVERAGE(F7,D7,B7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="H8" s="13">
+        <f>SUM(H4:H7)</f>
+        <v>5200.6666666666661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>52084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <f>SUM(B3:B8)</f>
-        <v>56164</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(D3:D8)</f>
-        <v>77580</v>
-      </c>
-      <c r="F9" s="3">
-        <f>SUM(F3:F8)</f>
-        <v>58249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10" si="11">INT(RIGHT(A10,LEN(A10)-FIND("@",SUBSTITUTE(A10,".","@",LEN(A10)-LEN(SUBSTITUTE(A10,".",""))),1)-1))</f>
-        <v>5219968</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>20770</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="12">INT(RIGHT(C10,LEN(C10)-FIND("@",SUBSTITUTE(C10,".","@",LEN(C10)-LEN(SUBSTITUTE(C10,".",""))),1)-1))</f>
-        <v>5219968</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>34061</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10" si="13">INT(RIGHT(E10,LEN(E10)-FIND("@",SUBSTITUTE(E10,".","@",LEN(E10)-LEN(SUBSTITUTE(E10,".",""))),1)-1))</f>
-        <v>5219968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <f>B10/B9</f>
-        <v>92.941528381169434</v>
-      </c>
-      <c r="D11">
-        <f>D10/D9</f>
-        <v>67.284970353183809</v>
-      </c>
-      <c r="F11">
-        <f>F10/F9</f>
-        <v>89.614722999536468</v>
+        <f t="shared" si="2"/>
+        <v>24909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM(B6:B10)</f>
+        <v>21020</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(D6:D10)</f>
+        <v>34459</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM(F6:F10)</f>
+        <v>25335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12" si="3">INT(RIGHT(A12,LEN(A12)-FIND("@",SUBSTITUTE(A12,".","@",LEN(A12)-LEN(SUBSTITUTE(A12,".",""))),1)-1))</f>
+        <v>2487641</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="4">INT(RIGHT(C12,LEN(C12)-FIND("@",SUBSTITUTE(C12,".","@",LEN(C12)-LEN(SUBSTITUTE(C12,".",""))),1)-1))</f>
+        <v>2487641</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="5">INT(RIGHT(E12,LEN(E12)-FIND("@",SUBSTITUTE(E12,".","@",LEN(E12)-LEN(SUBSTITUTE(E12,".",""))),1)-1))</f>
+        <v>2487641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>B12/B11</f>
+        <v>118.34638439581352</v>
+      </c>
+      <c r="D13">
+        <f>D12/D11</f>
+        <v>72.191328825560817</v>
+      </c>
+      <c r="F13">
+        <f>F12/F11</f>
+        <v>98.189895401618315</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66573CD-5081-0847-88CD-3D545484E608}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/data/Analysis results.xlsx
+++ b/data/Analysis results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jperrin/Workspaces/Book/net.jgp.books.sparkWithJava.ch04/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48A6459F-37BE-DC45-A600-90A20B736E2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D491403C-0C19-E54E-BCBC-04B07EE99BF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{F3FD4CC9-8027-2249-A179-E8E1DC3BF11D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23040" xr2:uid="{F3FD4CC9-8027-2249-A179-E8E1DC3BF11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
   <si>
     <t>Creating a session ................. 1742</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Total processing time (excluding loading)</t>
+  </si>
+  <si>
+    <t>New datapoints:</t>
   </si>
 </sst>
 </file>
@@ -523,17 +526,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA2CDE-3D0A-F94A-9A37-5A88A2E00234}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,29 +882,29 @@
       <c r="A3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B4">
         <f>INT(RIGHT(A4,LEN(A4)-FIND("@",SUBSTITUTE(A4,".","@",LEN(A4)-LEN(SUBSTITUTE(A4,".",""))),1)-1))</f>
         <v>1791</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D4">
         <f>INT(RIGHT(C4,LEN(C4)-FIND("@",SUBSTITUTE(C4,".","@",LEN(C4)-LEN(SUBSTITUTE(C4,".",""))),1)-1))</f>
         <v>1553</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>126</v>
       </c>
       <c r="F4">
@@ -914,111 +917,111 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B10" si="0">INT(RIGHT(A5,LEN(A5)-FIND("@",SUBSTITUTE(A5,".","@",LEN(A5)-LEN(SUBSTITUTE(A5,".",""))),1)-1))</f>
         <v>3287</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D10" si="1">INT(RIGHT(C5,LEN(C5)-FIND("@",SUBSTITUTE(C5,".","@",LEN(C5)-LEN(SUBSTITUTE(C5,".",""))),1)-1))</f>
         <v>3197</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F10" si="2">INT(RIGHT(E5,LEN(E5)-FIND("@",SUBSTITUTE(E5,".","@",LEN(E5)-LEN(SUBSTITUTE(E5,".",""))),1)-1))</f>
         <v>3184</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>AVERAGE(F5,D5,B5)</f>
         <v>3222.6666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>AVERAGE(F6,D6,B6)</f>
         <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>AVERAGE(F7,D7,B7)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="H8" s="13">
+      <c r="A8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="H8" s="11">
         <f>SUM(H4:H7)</f>
         <v>5200.6666666666661</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>129</v>
       </c>
       <c r="F9">
@@ -1027,21 +1030,21 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>20770</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>34061</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F10">
@@ -1067,21 +1070,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12" si="3">INT(RIGHT(A12,LEN(A12)-FIND("@",SUBSTITUTE(A12,".","@",LEN(A12)-LEN(SUBSTITUTE(A12,".",""))),1)-1))</f>
         <v>2487641</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12" si="4">INT(RIGHT(C12,LEN(C12)-FIND("@",SUBSTITUTE(C12,".","@",LEN(C12)-LEN(SUBSTITUTE(C12,".",""))),1)-1))</f>
         <v>2487641</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F12">
@@ -1101,6 +1104,15 @@
       <c r="F13">
         <f>F12/F11</f>
         <v>98.189895401618315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <f>B12*3</f>
+        <v>7462923</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1125,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>INT(RIGHT(E2,LEN(E2)-FIND("@",SUBSTITUTE(E2,".","@",LEN(E2)-LEN(SUBSTITUTE(E2,".",""))),1)-1))</f>
+        <f t="shared" ref="F2:F7" si="0">INT(RIGHT(E2,LEN(E2)-FIND("@",SUBSTITUTE(E2,".","@",LEN(E2)-LEN(SUBSTITUTE(E2,".",""))),1)-1))</f>
         <v>1742</v>
       </c>
     </row>
@@ -1162,21 +1174,21 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3" si="0">INT(RIGHT(A3,LEN(A3)-FIND("@",SUBSTITUTE(A3,".","@",LEN(A3)-LEN(SUBSTITUTE(A3,".",""))),1)-1))</f>
+        <f t="shared" ref="B3" si="1">INT(RIGHT(A3,LEN(A3)-FIND("@",SUBSTITUTE(A3,".","@",LEN(A3)-LEN(SUBSTITUTE(A3,".",""))),1)-1))</f>
         <v>3375</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">INT(RIGHT(C3,LEN(C3)-FIND("@",SUBSTITUTE(C3,".","@",LEN(C3)-LEN(SUBSTITUTE(C3,".",""))),1)-1))</f>
+        <f t="shared" ref="D3:D9" si="2">INT(RIGHT(C3,LEN(C3)-FIND("@",SUBSTITUTE(C3,".","@",LEN(C3)-LEN(SUBSTITUTE(C3,".",""))),1)-1))</f>
         <v>3618</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3">
-        <f>INT(RIGHT(E3,LEN(E3)-FIND("@",SUBSTITUTE(E3,".","@",LEN(E3)-LEN(SUBSTITUTE(E3,".",""))),1)-1))</f>
+        <f t="shared" si="0"/>
         <v>3316</v>
       </c>
     </row>
@@ -1185,21 +1197,21 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4" si="2">INT(RIGHT(A4,LEN(A4)-FIND("@",SUBSTITUTE(A4,".","@",LEN(A4)-LEN(SUBSTITUTE(A4,".",""))),1)-1))</f>
+        <f t="shared" ref="B4" si="3">INT(RIGHT(A4,LEN(A4)-FIND("@",SUBSTITUTE(A4,".","@",LEN(A4)-LEN(SUBSTITUTE(A4,".",""))),1)-1))</f>
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4">
-        <f>INT(RIGHT(E4,LEN(E4)-FIND("@",SUBSTITUTE(E4,".","@",LEN(E4)-LEN(SUBSTITUTE(E4,".",""))),1)-1))</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -1208,21 +1220,21 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5" si="3">INT(RIGHT(A5,LEN(A5)-FIND("@",SUBSTITUTE(A5,".","@",LEN(A5)-LEN(SUBSTITUTE(A5,".",""))),1)-1))</f>
+        <f t="shared" ref="B5" si="4">INT(RIGHT(A5,LEN(A5)-FIND("@",SUBSTITUTE(A5,".","@",LEN(A5)-LEN(SUBSTITUTE(A5,".",""))),1)-1))</f>
         <v>8431</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12788</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5">
-        <f>INT(RIGHT(E5,LEN(E5)-FIND("@",SUBSTITUTE(E5,".","@",LEN(E5)-LEN(SUBSTITUTE(E5,".",""))),1)-1))</f>
+        <f t="shared" si="0"/>
         <v>11247</v>
       </c>
     </row>
@@ -1231,21 +1243,21 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="4">INT(RIGHT(A6,LEN(A6)-FIND("@",SUBSTITUTE(A6,".","@",LEN(A6)-LEN(SUBSTITUTE(A6,".",""))),1)-1))</f>
+        <f t="shared" ref="B6" si="5">INT(RIGHT(A6,LEN(A6)-FIND("@",SUBSTITUTE(A6,".","@",LEN(A6)-LEN(SUBSTITUTE(A6,".",""))),1)-1))</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6">
-        <f>INT(RIGHT(E6,LEN(E6)-FIND("@",SUBSTITUTE(E6,".","@",LEN(E6)-LEN(SUBSTITUTE(E6,".",""))),1)-1))</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
     </row>
@@ -1254,21 +1266,21 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7" si="5">INT(RIGHT(A7,LEN(A7)-FIND("@",SUBSTITUTE(A7,".","@",LEN(A7)-LEN(SUBSTITUTE(A7,".",""))),1)-1))</f>
+        <f t="shared" ref="B7" si="6">INT(RIGHT(A7,LEN(A7)-FIND("@",SUBSTITUTE(A7,".","@",LEN(A7)-LEN(SUBSTITUTE(A7,".",""))),1)-1))</f>
         <v>8778</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18699</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <f>INT(RIGHT(E7,LEN(E7)-FIND("@",SUBSTITUTE(E7,".","@",LEN(E7)-LEN(SUBSTITUTE(E7,".",""))),1)-1))</f>
+        <f t="shared" si="0"/>
         <v>13730</v>
       </c>
     </row>
@@ -1294,14 +1306,14 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9" si="6">INT(RIGHT(A9,LEN(A9)-FIND("@",SUBSTITUTE(A9,".","@",LEN(A9)-LEN(SUBSTITUTE(A9,".",""))),1)-1))</f>
+        <f t="shared" ref="B9" si="7">INT(RIGHT(A9,LEN(A9)-FIND("@",SUBSTITUTE(A9,".","@",LEN(A9)-LEN(SUBSTITUTE(A9,".",""))),1)-1))</f>
         <v>1304992</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1304992</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1365,21 +1377,21 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B18" si="7">INT(RIGHT(A14,LEN(A14)-FIND("@",SUBSTITUTE(A14,".","@",LEN(A14)-LEN(SUBSTITUTE(A14,".",""))),1)-1))</f>
+        <f t="shared" ref="B14:B18" si="8">INT(RIGHT(A14,LEN(A14)-FIND("@",SUBSTITUTE(A14,".","@",LEN(A14)-LEN(SUBSTITUTE(A14,".",""))),1)-1))</f>
         <v>3353</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D18" si="8">INT(RIGHT(C14,LEN(C14)-FIND("@",SUBSTITUTE(C14,".","@",LEN(C14)-LEN(SUBSTITUTE(C14,".",""))),1)-1))</f>
+        <f t="shared" ref="D14:D18" si="9">INT(RIGHT(C14,LEN(C14)-FIND("@",SUBSTITUTE(C14,".","@",LEN(C14)-LEN(SUBSTITUTE(C14,".",""))),1)-1))</f>
         <v>3295</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="9">INT(RIGHT(E14,LEN(E14)-FIND("@",SUBSTITUTE(E14,".","@",LEN(E14)-LEN(SUBSTITUTE(E14,".",""))),1)-1))</f>
+        <f t="shared" ref="F14" si="10">INT(RIGHT(E14,LEN(E14)-FIND("@",SUBSTITUTE(E14,".","@",LEN(E14)-LEN(SUBSTITUTE(E14,".",""))),1)-1))</f>
         <v>4369</v>
       </c>
     </row>
@@ -1388,21 +1400,21 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15" si="10">INT(RIGHT(E15,LEN(E15)-FIND("@",SUBSTITUTE(E15,".","@",LEN(E15)-LEN(SUBSTITUTE(E15,".",""))),1)-1))</f>
+        <f t="shared" ref="F15" si="11">INT(RIGHT(E15,LEN(E15)-FIND("@",SUBSTITUTE(E15,".","@",LEN(E15)-LEN(SUBSTITUTE(E15,".",""))),1)-1))</f>
         <v>74</v>
       </c>
     </row>
@@ -1411,21 +1423,21 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60961</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55096</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="11">INT(RIGHT(E16,LEN(E16)-FIND("@",SUBSTITUTE(E16,".","@",LEN(E16)-LEN(SUBSTITUTE(E16,".",""))),1)-1))</f>
+        <f t="shared" ref="F16" si="12">INT(RIGHT(E16,LEN(E16)-FIND("@",SUBSTITUTE(E16,".","@",LEN(E16)-LEN(SUBSTITUTE(E16,".",""))),1)-1))</f>
         <v>64664</v>
       </c>
     </row>
@@ -1434,21 +1446,21 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="12">INT(RIGHT(E17,LEN(E17)-FIND("@",SUBSTITUTE(E17,".","@",LEN(E17)-LEN(SUBSTITUTE(E17,".",""))),1)-1))</f>
+        <f t="shared" ref="F17" si="13">INT(RIGHT(E17,LEN(E17)-FIND("@",SUBSTITUTE(E17,".","@",LEN(E17)-LEN(SUBSTITUTE(E17,".",""))),1)-1))</f>
         <v>218</v>
       </c>
     </row>
@@ -1457,21 +1469,21 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53868</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94139</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="13">INT(RIGHT(E18,LEN(E18)-FIND("@",SUBSTITUTE(E18,".","@",LEN(E18)-LEN(SUBSTITUTE(E18,".",""))),1)-1))</f>
+        <f t="shared" ref="F18" si="14">INT(RIGHT(E18,LEN(E18)-FIND("@",SUBSTITUTE(E18,".","@",LEN(E18)-LEN(SUBSTITUTE(E18,".",""))),1)-1))</f>
         <v>56619</v>
       </c>
     </row>
@@ -1494,21 +1506,21 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="14">INT(RIGHT(A20,LEN(A20)-FIND("@",SUBSTITUTE(A20,".","@",LEN(A20)-LEN(SUBSTITUTE(A20,".",""))),1)-1))</f>
+        <f t="shared" ref="B20" si="15">INT(RIGHT(A20,LEN(A20)-FIND("@",SUBSTITUTE(A20,".","@",LEN(A20)-LEN(SUBSTITUTE(A20,".",""))),1)-1))</f>
         <v>5219968</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="15">INT(RIGHT(C20,LEN(C20)-FIND("@",SUBSTITUTE(C20,".","@",LEN(C20)-LEN(SUBSTITUTE(C20,".",""))),1)-1))</f>
+        <f t="shared" ref="D20" si="16">INT(RIGHT(C20,LEN(C20)-FIND("@",SUBSTITUTE(C20,".","@",LEN(C20)-LEN(SUBSTITUTE(C20,".",""))),1)-1))</f>
         <v>5219968</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="16">INT(RIGHT(E20,LEN(E20)-FIND("@",SUBSTITUTE(E20,".","@",LEN(E20)-LEN(SUBSTITUTE(E20,".",""))),1)-1))</f>
+        <f t="shared" ref="F20" si="17">INT(RIGHT(E20,LEN(E20)-FIND("@",SUBSTITUTE(E20,".","@",LEN(E20)-LEN(SUBSTITUTE(E20,".",""))),1)-1))</f>
         <v>5219968</v>
       </c>
     </row>
@@ -1556,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="F24">
-        <f>INT(RIGHT(E24,LEN(E24)-FIND("@",SUBSTITUTE(E24,".","@",LEN(E24)-LEN(SUBSTITUTE(E24,".",""))),1)-1))</f>
+        <f t="shared" ref="F24:F29" si="18">INT(RIGHT(E24,LEN(E24)-FIND("@",SUBSTITUTE(E24,".","@",LEN(E24)-LEN(SUBSTITUTE(E24,".",""))),1)-1))</f>
         <v>2696</v>
       </c>
     </row>
@@ -1565,21 +1577,21 @@
         <v>51</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="17">INT(RIGHT(A25,LEN(A25)-FIND("@",SUBSTITUTE(A25,".","@",LEN(A25)-LEN(SUBSTITUTE(A25,".",""))),1)-1))</f>
+        <f t="shared" ref="B25" si="19">INT(RIGHT(A25,LEN(A25)-FIND("@",SUBSTITUTE(A25,".","@",LEN(A25)-LEN(SUBSTITUTE(A25,".",""))),1)-1))</f>
         <v>3246</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D29" si="18">INT(RIGHT(C25,LEN(C25)-FIND("@",SUBSTITUTE(C25,".","@",LEN(C25)-LEN(SUBSTITUTE(C25,".",""))),1)-1))</f>
+        <f t="shared" ref="D25:D29" si="20">INT(RIGHT(C25,LEN(C25)-FIND("@",SUBSTITUTE(C25,".","@",LEN(C25)-LEN(SUBSTITUTE(C25,".",""))),1)-1))</f>
         <v>3376</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F25">
-        <f>INT(RIGHT(E25,LEN(E25)-FIND("@",SUBSTITUTE(E25,".","@",LEN(E25)-LEN(SUBSTITUTE(E25,".",""))),1)-1))</f>
+        <f t="shared" si="18"/>
         <v>4514</v>
       </c>
     </row>
@@ -1588,21 +1600,21 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="19">INT(RIGHT(A26,LEN(A26)-FIND("@",SUBSTITUTE(A26,".","@",LEN(A26)-LEN(SUBSTITUTE(A26,".",""))),1)-1))</f>
+        <f t="shared" ref="B26" si="21">INT(RIGHT(A26,LEN(A26)-FIND("@",SUBSTITUTE(A26,".","@",LEN(A26)-LEN(SUBSTITUTE(A26,".",""))),1)-1))</f>
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <f>INT(RIGHT(E26,LEN(E26)-FIND("@",SUBSTITUTE(E26,".","@",LEN(E26)-LEN(SUBSTITUTE(E26,".",""))),1)-1))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1611,21 +1623,21 @@
         <v>52</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="20">INT(RIGHT(A27,LEN(A27)-FIND("@",SUBSTITUTE(A27,".","@",LEN(A27)-LEN(SUBSTITUTE(A27,".",""))),1)-1))</f>
+        <f t="shared" ref="B27" si="22">INT(RIGHT(A27,LEN(A27)-FIND("@",SUBSTITUTE(A27,".","@",LEN(A27)-LEN(SUBSTITUTE(A27,".",""))),1)-1))</f>
         <v>648</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>658</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F27">
-        <f>INT(RIGHT(E27,LEN(E27)-FIND("@",SUBSTITUTE(E27,".","@",LEN(E27)-LEN(SUBSTITUTE(E27,".",""))),1)-1))</f>
+        <f t="shared" si="18"/>
         <v>923</v>
       </c>
     </row>
@@ -1634,21 +1646,21 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="21">INT(RIGHT(A28,LEN(A28)-FIND("@",SUBSTITUTE(A28,".","@",LEN(A28)-LEN(SUBSTITUTE(A28,".",""))),1)-1))</f>
+        <f t="shared" ref="B28" si="23">INT(RIGHT(A28,LEN(A28)-FIND("@",SUBSTITUTE(A28,".","@",LEN(A28)-LEN(SUBSTITUTE(A28,".",""))),1)-1))</f>
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>190</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F28">
-        <f>INT(RIGHT(E28,LEN(E28)-FIND("@",SUBSTITUTE(E28,".","@",LEN(E28)-LEN(SUBSTITUTE(E28,".",""))),1)-1))</f>
+        <f t="shared" si="18"/>
         <v>224</v>
       </c>
     </row>
@@ -1657,21 +1669,21 @@
         <v>53</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="22">INT(RIGHT(A29,LEN(A29)-FIND("@",SUBSTITUTE(A29,".","@",LEN(A29)-LEN(SUBSTITUTE(A29,".",""))),1)-1))</f>
+        <f t="shared" ref="B29" si="24">INT(RIGHT(A29,LEN(A29)-FIND("@",SUBSTITUTE(A29,".","@",LEN(A29)-LEN(SUBSTITUTE(A29,".",""))),1)-1))</f>
         <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>792</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F29">
-        <f>INT(RIGHT(E29,LEN(E29)-FIND("@",SUBSTITUTE(E29,".","@",LEN(E29)-LEN(SUBSTITUTE(E29,".",""))),1)-1))</f>
+        <f t="shared" si="18"/>
         <v>982</v>
       </c>
     </row>
@@ -1694,14 +1706,14 @@
         <v>44</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="23">INT(RIGHT(A31,LEN(A31)-FIND("@",SUBSTITUTE(A31,".","@",LEN(A31)-LEN(SUBSTITUTE(A31,".",""))),1)-1))</f>
+        <f t="shared" ref="B31" si="25">INT(RIGHT(A31,LEN(A31)-FIND("@",SUBSTITUTE(A31,".","@",LEN(A31)-LEN(SUBSTITUTE(A31,".",""))),1)-1))</f>
         <v>40781</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="24">INT(RIGHT(C31,LEN(C31)-FIND("@",SUBSTITUTE(C31,".","@",LEN(C31)-LEN(SUBSTITUTE(C31,".",""))),1)-1))</f>
+        <f t="shared" ref="D31" si="26">INT(RIGHT(C31,LEN(C31)-FIND("@",SUBSTITUTE(C31,".","@",LEN(C31)-LEN(SUBSTITUTE(C31,".",""))),1)-1))</f>
         <v>40781</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1958,10 +1970,10 @@
       <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2152,17 +2164,17 @@
         <v>66.598213830058683</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
